--- a/RESTful_ws.xlsx
+++ b/RESTful_ws.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg38446\Tech\Code Practice\git.pradhapganesanj\pg-notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="216" windowWidth="19092" windowHeight="8352" tabRatio="682"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="19095" windowHeight="8355" tabRatio="682"/>
   </bookViews>
   <sheets>
     <sheet name="RESTful" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="475">
   <si>
     <t>REST</t>
   </si>
@@ -4781,11 +4786,14 @@
 -- Uniform Interface
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">-- Head is useful to get information about body of response; like size is huge, before it start downloading it; </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5684,7 +5692,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6070,21 +6078,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6092,12 +6106,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6112,16 +6120,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6134,6 +6142,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6146,6 +6157,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6627,7 +6641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6662,7 +6676,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6873,47 +6887,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="59.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="49.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="43.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="57.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="56.6640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="3"/>
+    <col min="3" max="3" width="22.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="59.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="57.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="56.7109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="70"/>
     </row>
-    <row r="2" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="70"/>
     </row>
-    <row r="3" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="70"/>
     </row>
-    <row r="4" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="70"/>
     </row>
-    <row r="5" spans="2:10" s="64" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" s="64" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="136" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
       <c r="F5" s="66" t="s">
         <v>313</v>
       </c>
@@ -6922,29 +6936,29 @@
       <c r="I5" s="66"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" s="69" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" s="69" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="129" t="s">
         <v>473</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="138"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
       <c r="J6" s="68"/>
     </row>
-    <row r="7" spans="2:10" s="64" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" s="64" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="137" t="s">
         <v>425</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="4" t="s">
         <v>423</v>
       </c>
@@ -6954,15 +6968,15 @@
       <c r="H7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" s="64" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" s="64" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="71" t="s">
         <v>315</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="137" t="s">
         <v>317</v>
       </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
       <c r="F8" s="2" t="s">
         <v>316</v>
       </c>
@@ -6971,50 +6985,50 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="70"/>
     </row>
-    <row r="10" spans="2:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
       <c r="F10" s="44" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="133"/>
-    </row>
-    <row r="12" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="132"/>
+    </row>
+    <row r="12" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D12" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="133"/>
-    </row>
-    <row r="13" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="132"/>
+    </row>
+    <row r="13" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="133"/>
-    </row>
-    <row r="14" spans="2:10" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="E13" s="132"/>
+    </row>
+    <row r="14" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
@@ -7022,34 +7036,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="70"/>
     </row>
-    <row r="16" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="70"/>
       <c r="C16" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="70"/>
       <c r="C17" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="70"/>
       <c r="C18" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="70"/>
       <c r="C19" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="68.400000000000006" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="67.5" x14ac:dyDescent="0.25">
       <c r="C20" s="21" t="s">
         <v>106</v>
       </c>
@@ -7073,7 +7087,7 @@
       </c>
       <c r="J20" s="42"/>
     </row>
-    <row r="21" spans="2:10" s="22" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" s="22" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="70"/>
       <c r="E21" s="22" t="s">
         <v>114</v>
@@ -7091,17 +7105,17 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="70"/>
     </row>
-    <row r="23" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="70"/>
     </row>
-    <row r="25" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="70"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="2:10" s="23" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" s="23" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="70"/>
       <c r="C26" s="23" t="s">
         <v>115</v>
@@ -7116,10 +7130,10 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="70"/>
     </row>
-    <row r="28" spans="2:10" s="24" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" s="24" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B28" s="70"/>
       <c r="C28" s="24" t="s">
         <v>124</v>
@@ -7131,10 +7145,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="70"/>
     </row>
-    <row r="30" spans="2:10" s="24" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" s="24" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B30" s="70"/>
       <c r="C30" s="24" t="s">
         <v>126</v>
@@ -7152,10 +7166,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="70"/>
     </row>
-    <row r="32" spans="2:10" s="24" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" s="24" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B32" s="70"/>
       <c r="C32" s="24" t="s">
         <v>133</v>
@@ -7167,7 +7181,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="24" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" s="24" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B33" s="70"/>
       <c r="C33" s="24" t="s">
         <v>133</v>
@@ -7182,13 +7196,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="70"/>
     </row>
-    <row r="35" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="70"/>
     </row>
-    <row r="36" spans="2:8" s="24" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" s="24" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B36" s="70"/>
       <c r="C36" s="24" t="s">
         <v>139</v>
@@ -7196,11 +7210,14 @@
       <c r="D36" s="44" t="s">
         <v>281</v>
       </c>
+      <c r="E36" s="151" t="s">
+        <v>474</v>
+      </c>
       <c r="F36" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="44" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" s="44" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="70"/>
       <c r="C37" s="44" t="s">
         <v>139</v>
@@ -7218,17 +7235,17 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="24" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" s="24" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="70"/>
       <c r="C38" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="D38" s="133" t="s">
+      <c r="D38" s="132" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="133"/>
-    </row>
-    <row r="39" spans="2:8" s="24" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+      <c r="E38" s="132"/>
+    </row>
+    <row r="39" spans="2:8" s="24" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B39" s="70"/>
       <c r="C39" s="24" t="s">
         <v>142</v>
@@ -7243,10 +7260,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="70"/>
     </row>
-    <row r="41" spans="2:8" s="24" customFormat="1" ht="91.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B41" s="70"/>
       <c r="C41" s="24" t="s">
         <v>143</v>
@@ -7264,10 +7281,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
     </row>
-    <row r="43" spans="2:8" s="42" customFormat="1" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="70"/>
       <c r="C43" s="42" t="s">
         <v>263</v>
@@ -7282,20 +7299,20 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
       <c r="C44" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="D44" s="133" t="s">
+      <c r="D44" s="132" t="s">
         <v>291</v>
       </c>
-      <c r="E44" s="133"/>
-    </row>
-    <row r="45" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="132"/>
+    </row>
+    <row r="45" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="70"/>
     </row>
-    <row r="46" spans="2:8" s="24" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" s="24" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B46" s="70"/>
       <c r="C46" s="24" t="s">
         <v>147</v>
@@ -7307,16 +7324,16 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="70"/>
     </row>
-    <row r="48" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="70"/>
     </row>
-    <row r="49" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="70"/>
     </row>
-    <row r="50" spans="2:9" s="25" customFormat="1" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" s="25" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B50" s="70"/>
       <c r="C50" s="25" t="s">
         <v>163</v>
@@ -7325,10 +7342,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="70"/>
     </row>
-    <row r="52" spans="2:9" s="25" customFormat="1" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="70"/>
       <c r="C52" s="45" t="s">
         <v>282</v>
@@ -7340,7 +7357,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="70"/>
       <c r="C53" s="45" t="s">
         <v>285</v>
@@ -7349,7 +7366,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="2:9" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="70"/>
       <c r="C54" s="45" t="s">
         <v>286</v>
@@ -7358,7 +7375,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="2:9" s="45" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="70"/>
       <c r="C55" s="45" t="s">
         <v>289</v>
@@ -7368,19 +7385,19 @@
       </c>
       <c r="E55" s="51"/>
     </row>
-    <row r="56" spans="2:9" s="69" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="70"/>
       <c r="E56" s="51"/>
     </row>
-    <row r="57" spans="2:9" s="69" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="70"/>
       <c r="E57" s="51"/>
     </row>
-    <row r="58" spans="2:9" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" s="69" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="70"/>
       <c r="E58" s="51"/>
     </row>
-    <row r="59" spans="2:9" s="45" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" s="86"/>
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
@@ -7390,7 +7407,7 @@
       <c r="H59" s="87"/>
       <c r="I59" s="89"/>
     </row>
-    <row r="60" spans="2:9" s="25" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" s="25" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B60" s="90"/>
       <c r="C60" s="14" t="s">
         <v>102</v>
@@ -7410,21 +7427,21 @@
       </c>
       <c r="I60" s="91"/>
     </row>
-    <row r="61" spans="2:9" s="24" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" s="24" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="90"/>
       <c r="C61" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="146" t="s">
+      <c r="D61" s="135" t="s">
         <v>274</v>
       </c>
-      <c r="E61" s="146"/>
+      <c r="E61" s="135"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="91"/>
     </row>
-    <row r="62" spans="2:9" s="44" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" s="44" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B62" s="90"/>
       <c r="C62" s="14" t="s">
         <v>102</v>
@@ -7440,41 +7457,41 @@
       <c r="H62" s="14"/>
       <c r="I62" s="91"/>
     </row>
-    <row r="63" spans="2:9" s="44" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" s="44" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="90"/>
       <c r="C63" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="146" t="s">
+      <c r="D63" s="135" t="s">
         <v>271</v>
       </c>
-      <c r="E63" s="146"/>
+      <c r="E63" s="135"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="91"/>
     </row>
-    <row r="64" spans="2:9" s="44" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" s="44" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="90"/>
       <c r="C64" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="146" t="s">
+      <c r="D64" s="135" t="s">
         <v>272</v>
       </c>
-      <c r="E64" s="146"/>
+      <c r="E64" s="135"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="91"/>
     </row>
-    <row r="65" spans="2:11" s="44" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" s="44" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="90"/>
       <c r="C65" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="146"/>
-      <c r="E65" s="146"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="135"/>
       <c r="F65" s="69" t="s">
         <v>342</v>
       </c>
@@ -7486,7 +7503,7 @@
       </c>
       <c r="I65" s="91"/>
     </row>
-    <row r="66" spans="2:11" s="44" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" s="44" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="90"/>
       <c r="C66" s="14" t="s">
         <v>102</v>
@@ -7503,7 +7520,7 @@
       </c>
       <c r="I66" s="91"/>
     </row>
-    <row r="67" spans="2:11" s="69" customFormat="1" ht="112.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" s="69" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B67" s="90"/>
       <c r="C67" s="14" t="s">
         <v>102</v>
@@ -7523,7 +7540,7 @@
       </c>
       <c r="I67" s="91"/>
     </row>
-    <row r="68" spans="2:11" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="90"/>
       <c r="C68" s="14"/>
       <c r="E68" s="95"/>
@@ -7532,7 +7549,7 @@
       <c r="H68" s="96"/>
       <c r="I68" s="91"/>
     </row>
-    <row r="69" spans="2:11" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="90"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
@@ -7542,7 +7559,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="91"/>
     </row>
-    <row r="70" spans="2:11" s="69" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" s="69" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="92"/>
       <c r="C70" s="93"/>
       <c r="D70" s="93"/>
@@ -7552,26 +7569,26 @@
       <c r="H70" s="93"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="71" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="70"/>
     </row>
-    <row r="72" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="70"/>
     </row>
-    <row r="73" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="144" t="s">
+      <c r="C73" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="145"/>
+      <c r="D73" s="134"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="73"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -7580,29 +7597,29 @@
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
     </row>
-    <row r="75" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="143" t="s">
+      <c r="C75" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="143"/>
+      <c r="D75" s="131"/>
       <c r="E75" s="48"/>
     </row>
-    <row r="76" spans="2:11" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="75" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="137" t="s">
+      <c r="D76" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="138"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E76" s="130"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="75" t="s">
         <v>4</v>
       </c>
@@ -7617,7 +7634,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="2:11" s="69" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" s="69" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="75"/>
       <c r="C80" s="1" t="s">
         <v>359</v>
@@ -7632,7 +7649,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="2:11" s="101" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:11" s="101" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="75"/>
       <c r="C81" s="1" t="s">
         <v>359</v>
@@ -7647,15 +7664,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:11" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="75"/>
       <c r="C82" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="137" t="s">
+      <c r="D82" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="138"/>
+      <c r="E82" s="130"/>
       <c r="F82" s="4" t="s">
         <v>35</v>
       </c>
@@ -7703,7 +7720,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="75"/>
       <c r="C84" s="1" t="s">
         <v>13</v>
@@ -7716,7 +7733,7 @@
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="2:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="75"/>
       <c r="C85" s="1" t="s">
         <v>14</v>
@@ -7727,7 +7744,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="2:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="75"/>
       <c r="C86" s="1" t="s">
         <v>15</v>
@@ -7740,7 +7757,7 @@
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="75"/>
       <c r="C87" s="1" t="s">
         <v>16</v>
@@ -7751,7 +7768,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="75"/>
       <c r="C88" s="1" t="s">
         <v>18</v>
@@ -7766,20 +7783,20 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="75"/>
       <c r="C89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="137" t="s">
+      <c r="D89" s="129" t="s">
         <v>375</v>
       </c>
-      <c r="E89" s="138"/>
+      <c r="E89" s="130"/>
       <c r="F89" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="75"/>
       <c r="C90" s="1" t="s">
         <v>17</v>
@@ -7794,7 +7811,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="2:11" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:11" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="75"/>
       <c r="C91" s="1" t="s">
         <v>69</v>
@@ -7809,7 +7826,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="2:11" s="11" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:11" s="11" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="75"/>
       <c r="C92" s="1" t="s">
         <v>70</v>
@@ -7824,7 +7841,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="2:11" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:11" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="75"/>
       <c r="C93" s="1" t="s">
         <v>71</v>
@@ -7839,7 +7856,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="2:11" s="36" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:11" s="36" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="75"/>
       <c r="C94" s="1" t="s">
         <v>232</v>
@@ -7850,7 +7867,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="2:11" s="36" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:11" s="36" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="75"/>
       <c r="C95" s="1" t="s">
         <v>234</v>
@@ -7866,7 +7883,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="2:11" s="11" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:11" s="11" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="75"/>
       <c r="C96" s="1" t="s">
         <v>81</v>
@@ -7881,7 +7898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="2:7" s="35" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" s="35" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="75"/>
       <c r="C97" s="1" t="s">
         <v>225</v>
@@ -7890,7 +7907,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="2:7" s="40" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" s="40" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="75"/>
       <c r="C98" s="1" t="s">
         <v>252</v>
@@ -7899,7 +7916,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="2:7" s="11" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" s="11" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="75"/>
       <c r="C99" s="1" t="s">
         <v>87</v>
@@ -7914,7 +7931,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="2:7" s="11" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" s="11" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="75"/>
       <c r="C100" s="1" t="s">
         <v>87</v>
@@ -7930,7 +7947,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B101" s="75"/>
       <c r="C101" s="1" t="s">
         <v>37</v>
@@ -7945,7 +7962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="114" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" ht="123.75" x14ac:dyDescent="0.25">
       <c r="B102" s="75"/>
       <c r="C102" s="1" t="s">
         <v>39</v>
@@ -7960,7 +7977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B103" s="75"/>
       <c r="C103" s="1" t="s">
         <v>40</v>
@@ -7975,7 +7992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="68.400000000000006" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B104" s="75"/>
       <c r="C104" s="1" t="s">
         <v>54</v>
@@ -7988,87 +8005,87 @@
       </c>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="2:7" s="101" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" s="101" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="75"/>
       <c r="C105" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D105" s="137" t="s">
+      <c r="D105" s="129" t="s">
         <v>367</v>
       </c>
-      <c r="E105" s="138"/>
+      <c r="E105" s="130"/>
       <c r="F105" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="2:7" s="65" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" s="65" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="75"/>
       <c r="C106" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D106" s="137" t="s">
+      <c r="D106" s="129" t="s">
         <v>336</v>
       </c>
-      <c r="E106" s="138"/>
+      <c r="E106" s="130"/>
       <c r="F106" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="2:7" s="69" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" s="69" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="75"/>
       <c r="C107" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D107" s="137" t="s">
+      <c r="D107" s="129" t="s">
         <v>346</v>
       </c>
-      <c r="E107" s="138"/>
+      <c r="E107" s="130"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="2:7" s="65" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" s="65" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="75"/>
       <c r="C108" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D108" s="137" t="s">
+      <c r="D108" s="129" t="s">
         <v>335</v>
       </c>
-      <c r="E108" s="138"/>
+      <c r="E108" s="130"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="2:7" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="75"/>
       <c r="C109" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D109" s="137" t="s">
+      <c r="D109" s="129" t="s">
         <v>339</v>
       </c>
-      <c r="E109" s="138"/>
+      <c r="E109" s="130"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="75"/>
       <c r="C110" s="4"/>
       <c r="D110" s="2"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="76"/>
       <c r="C111" s="9"/>
       <c r="D111" s="14"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
     </row>
-    <row r="112" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="76"/>
       <c r="C112" s="9"/>
       <c r="D112" s="14"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
     </row>
-    <row r="113" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="77"/>
       <c r="C113" s="30"/>
       <c r="D113" s="31"/>
@@ -8076,7 +8093,7 @@
       <c r="F113" s="30"/>
       <c r="G113" s="32"/>
     </row>
-    <row r="114" spans="2:8" s="46" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" s="46" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="77" t="s">
         <v>183</v>
       </c>
@@ -8090,7 +8107,7 @@
       <c r="F114" s="47"/>
       <c r="G114" s="32"/>
     </row>
-    <row r="115" spans="2:8" s="27" customFormat="1" ht="51" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" s="27" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B115" s="77" t="s">
         <v>183</v>
       </c>
@@ -8106,7 +8123,7 @@
       </c>
       <c r="G115" s="32"/>
     </row>
-    <row r="116" spans="2:8" s="27" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" s="27" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="77" t="s">
         <v>183</v>
       </c>
@@ -8114,13 +8131,13 @@
         <v>190</v>
       </c>
       <c r="D116" s="31"/>
-      <c r="E116" s="136" t="s">
+      <c r="E116" s="138" t="s">
         <v>191</v>
       </c>
-      <c r="F116" s="136"/>
+      <c r="F116" s="138"/>
       <c r="G116" s="32"/>
     </row>
-    <row r="117" spans="2:8" s="27" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" s="27" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="77" t="s">
         <v>183</v>
       </c>
@@ -8128,13 +8145,13 @@
         <v>192</v>
       </c>
       <c r="D117" s="31"/>
-      <c r="E117" s="136" t="s">
+      <c r="E117" s="138" t="s">
         <v>193</v>
       </c>
-      <c r="F117" s="136"/>
+      <c r="F117" s="138"/>
       <c r="G117" s="32"/>
     </row>
-    <row r="118" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="77" t="s">
         <v>183</v>
       </c>
@@ -8144,7 +8161,7 @@
       <c r="F118" s="30"/>
       <c r="G118" s="32"/>
     </row>
-    <row r="119" spans="2:8" s="27" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B119" s="77" t="s">
         <v>183</v>
       </c>
@@ -8160,7 +8177,7 @@
       <c r="F119" s="30"/>
       <c r="G119" s="32"/>
     </row>
-    <row r="120" spans="2:8" s="27" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8" s="27" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="77"/>
       <c r="C120" s="31" t="s">
         <v>242</v>
@@ -8178,7 +8195,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="77"/>
       <c r="C121" s="30"/>
       <c r="D121" s="31"/>
@@ -8186,7 +8203,7 @@
       <c r="F121" s="30"/>
       <c r="G121" s="32"/>
     </row>
-    <row r="122" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="77"/>
       <c r="C122" s="30"/>
       <c r="D122" s="31"/>
@@ -8194,7 +8211,7 @@
       <c r="F122" s="30"/>
       <c r="G122" s="32"/>
     </row>
-    <row r="123" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="76"/>
       <c r="C123" s="9"/>
       <c r="D123" s="14"/>
@@ -8202,10 +8219,10 @@
       <c r="F123" s="9"/>
       <c r="G123" s="14"/>
     </row>
-    <row r="125" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="70"/>
     </row>
-    <row r="126" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="70" t="s">
         <v>56</v>
       </c>
@@ -8228,7 +8245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="2:8" s="101" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" s="101" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="70"/>
       <c r="C127" s="101" t="s">
         <v>371</v>
@@ -8243,7 +8260,7 @@
       <c r="G127" s="19"/>
       <c r="H127" s="19"/>
     </row>
-    <row r="128" spans="2:8" s="101" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" s="101" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="70" t="s">
         <v>56</v>
       </c>
@@ -8259,7 +8276,7 @@
       <c r="G128" s="19"/>
       <c r="H128" s="19"/>
     </row>
-    <row r="129" spans="1:8" ht="159.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="171" x14ac:dyDescent="0.25">
       <c r="B129" s="70" t="s">
         <v>56</v>
       </c>
@@ -8276,7 +8293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="117.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="B130" s="70" t="s">
         <v>56</v>
       </c>
@@ -8290,7 +8307,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="40" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="40" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="70" t="s">
         <v>56</v>
       </c>
@@ -8304,7 +8321,7 @@
       <c r="G131" s="19"/>
       <c r="H131" s="19"/>
     </row>
-    <row r="132" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="108" x14ac:dyDescent="0.25">
       <c r="B132" s="70" t="s">
         <v>56</v>
       </c>
@@ -8321,7 +8338,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="108" x14ac:dyDescent="0.25">
       <c r="B133" s="70" t="s">
         <v>56</v>
       </c>
@@ -8336,7 +8353,7 @@
       </c>
       <c r="G133" s="19"/>
     </row>
-    <row r="134" spans="1:8" ht="142.80000000000001" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="153" x14ac:dyDescent="0.25">
       <c r="B134" s="70" t="s">
         <v>56</v>
       </c>
@@ -8353,7 +8370,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="27" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
         <v>195</v>
       </c>
@@ -8369,7 +8386,7 @@
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
     </row>
-    <row r="136" spans="1:8" s="27" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
         <v>195</v>
       </c>
@@ -8382,7 +8399,7 @@
       </c>
       <c r="G136" s="19"/>
     </row>
-    <row r="137" spans="1:8" s="27" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="27" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
         <v>195</v>
       </c>
@@ -8398,7 +8415,7 @@
       </c>
       <c r="G137" s="19"/>
     </row>
-    <row r="138" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>195</v>
       </c>
@@ -8411,7 +8428,7 @@
       </c>
       <c r="G138" s="19"/>
     </row>
-    <row r="139" spans="1:8" s="27" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="27" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
         <v>195</v>
       </c>
@@ -8427,7 +8444,7 @@
       </c>
       <c r="G139" s="19"/>
     </row>
-    <row r="140" spans="1:8" s="27" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="27" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
         <v>195</v>
       </c>
@@ -8443,7 +8460,7 @@
       </c>
       <c r="G140" s="19"/>
     </row>
-    <row r="141" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
         <v>195</v>
       </c>
@@ -8454,7 +8471,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="27" customFormat="1" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="27" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
         <v>195</v>
       </c>
@@ -8472,7 +8489,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="27" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
         <v>195</v>
       </c>
@@ -8488,14 +8505,14 @@
       </c>
       <c r="G143" s="34"/>
     </row>
-    <row r="144" spans="1:8" s="27" customFormat="1" ht="51" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="27" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B144" s="70"/>
       <c r="F144" s="34" t="s">
         <v>218</v>
       </c>
       <c r="G144" s="34"/>
     </row>
-    <row r="145" spans="2:7" s="35" customFormat="1" ht="153" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:7" s="35" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
       <c r="B145" s="70"/>
       <c r="C145" s="40" t="s">
         <v>250</v>
@@ -8508,7 +8525,7 @@
       </c>
       <c r="G145" s="34"/>
     </row>
-    <row r="146" spans="2:7" s="35" customFormat="1" ht="102" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" s="35" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B146" s="70"/>
       <c r="C146" s="40" t="s">
         <v>256</v>
@@ -8521,7 +8538,7 @@
       </c>
       <c r="G146" s="34"/>
     </row>
-    <row r="147" spans="2:7" s="103" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" s="103" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="70"/>
       <c r="C147" s="103" t="s">
         <v>426</v>
@@ -8532,7 +8549,7 @@
       <c r="F147" s="43"/>
       <c r="G147" s="34"/>
     </row>
-    <row r="148" spans="2:7" s="103" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" s="103" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="70"/>
       <c r="C148" s="103" t="s">
         <v>427</v>
@@ -8543,24 +8560,24 @@
       <c r="F148" s="43"/>
       <c r="G148" s="34"/>
     </row>
-    <row r="149" spans="2:7" s="106" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7" s="106" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="70"/>
       <c r="C149" s="106" t="s">
         <v>439</v>
       </c>
-      <c r="D149" s="133" t="s">
+      <c r="D149" s="132" t="s">
         <v>440</v>
       </c>
-      <c r="E149" s="133"/>
+      <c r="E149" s="132"/>
       <c r="F149" s="43"/>
       <c r="G149" s="34"/>
     </row>
-    <row r="150" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="70"/>
       <c r="F150" s="34"/>
       <c r="G150" s="34"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="70" t="s">
         <v>4</v>
       </c>
@@ -8568,7 +8585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="2:7" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="C153" s="3" t="s">
         <v>23</v>
       </c>
@@ -8576,33 +8593,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="155" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="78"/>
       <c r="C155" s="59"/>
       <c r="D155" s="59"/>
       <c r="E155" s="59"/>
       <c r="F155" s="60"/>
     </row>
-    <row r="156" spans="2:7" s="46" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:7" s="46" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="79" t="s">
         <v>311</v>
       </c>
-      <c r="C156" s="132" t="s">
+      <c r="C156" s="146" t="s">
         <v>312</v>
       </c>
-      <c r="D156" s="132"/>
+      <c r="D156" s="146"/>
       <c r="E156" s="54"/>
       <c r="F156" s="61"/>
     </row>
-    <row r="157" spans="2:7" s="46" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:7" s="46" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="80"/>
       <c r="C157" s="62"/>
       <c r="D157" s="62"/>
       <c r="E157" s="62"/>
       <c r="F157" s="63"/>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" s="70" t="s">
         <v>4</v>
       </c>
@@ -8619,12 +8636,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F163" s="35" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="81"/>
       <c r="C166" s="52"/>
       <c r="D166" s="52"/>
@@ -8636,7 +8653,7 @@
       <c r="J166" s="49"/>
       <c r="K166" s="13"/>
     </row>
-    <row r="167" spans="2:11" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:11" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" s="82" t="s">
         <v>295</v>
       </c>
@@ -8666,7 +8683,7 @@
       </c>
       <c r="K167" s="15"/>
     </row>
-    <row r="168" spans="2:11" s="46" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:11" s="46" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="83"/>
       <c r="C168" s="54"/>
       <c r="D168" s="54" t="s">
@@ -8688,7 +8705,7 @@
       <c r="J168" s="14"/>
       <c r="K168" s="15"/>
     </row>
-    <row r="169" spans="2:11" s="46" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:11" s="46" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="83"/>
       <c r="C169" s="54"/>
       <c r="D169" s="54"/>
@@ -8700,7 +8717,7 @@
       <c r="J169" s="14"/>
       <c r="K169" s="15"/>
     </row>
-    <row r="170" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="83"/>
       <c r="C170" s="54"/>
       <c r="D170" s="54"/>
@@ -8712,7 +8729,7 @@
       <c r="J170" s="14"/>
       <c r="K170" s="15"/>
     </row>
-    <row r="171" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="84"/>
       <c r="C171" s="57"/>
       <c r="D171" s="57"/>
@@ -8724,17 +8741,17 @@
       <c r="J171" s="16"/>
       <c r="K171" s="17"/>
     </row>
-    <row r="174" spans="2:11" s="64" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="B174" s="129" t="s">
+    <row r="174" spans="2:11" s="64" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B174" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="130" t="s">
+      <c r="C174" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="130" t="s">
+      <c r="D174" s="144" t="s">
         <v>326</v>
       </c>
-      <c r="E174" s="131" t="s">
+      <c r="E174" s="145" t="s">
         <v>323</v>
       </c>
       <c r="F174" s="2" t="s">
@@ -8750,17 +8767,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="175" spans="2:11" s="26" customFormat="1" ht="224.4" x14ac:dyDescent="0.3">
-      <c r="B175" s="129" t="s">
+    <row r="175" spans="2:11" s="26" customFormat="1" ht="258.75" x14ac:dyDescent="0.25">
+      <c r="B175" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C175" s="130" t="s">
+      <c r="C175" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="130" t="s">
+      <c r="D175" s="144" t="s">
         <v>324</v>
       </c>
-      <c r="E175" s="131" t="s">
+      <c r="E175" s="145" t="s">
         <v>323</v>
       </c>
       <c r="F175" s="4" t="s">
@@ -8776,7 +8793,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="176" spans="2:11" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:11" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B176" s="85" t="s">
         <v>0</v>
       </c>
@@ -8793,7 +8810,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="177" spans="2:6" s="26" customFormat="1" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" s="26" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B177" s="85"/>
       <c r="E177" s="26" t="s">
         <v>319</v>
@@ -8804,19 +8821,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="C156:D156"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C7:E7"/>
@@ -8833,11 +8842,19 @@
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D153" r:id="rId1"/>
@@ -8859,21 +8876,21 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="109" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="109"/>
-    <col min="3" max="3" width="13.33203125" style="109" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="109" customWidth="1"/>
-    <col min="5" max="5" width="37.77734375" style="109" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="26" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="26" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="26"/>
+    <col min="2" max="2" width="9.140625" style="109"/>
+    <col min="3" max="3" width="13.28515625" style="109" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="109" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="109" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="119"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -8882,7 +8899,7 @@
       <c r="G2" s="111"/>
       <c r="H2" s="112"/>
     </row>
-    <row r="3" spans="2:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="120" t="s">
         <v>455</v>
       </c>
@@ -8899,7 +8916,7 @@
       <c r="G3" s="147"/>
       <c r="H3" s="114"/>
     </row>
-    <row r="4" spans="2:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="120"/>
       <c r="C4" s="110"/>
       <c r="D4" s="110"/>
@@ -8910,7 +8927,7 @@
       <c r="G4" s="147"/>
       <c r="H4" s="114"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="120"/>
       <c r="C5" s="110"/>
       <c r="D5" s="110"/>
@@ -8919,7 +8936,7 @@
       <c r="G5" s="117"/>
       <c r="H5" s="114"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="121"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -8928,8 +8945,8 @@
       <c r="G6" s="118"/>
       <c r="H6" s="116"/>
     </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="119"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -8938,7 +8955,7 @@
       <c r="G8" s="111"/>
       <c r="H8" s="112"/>
     </row>
-    <row r="9" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B9" s="120" t="s">
         <v>465</v>
       </c>
@@ -8949,7 +8966,7 @@
       <c r="G9" s="113"/>
       <c r="H9" s="114"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="120"/>
       <c r="C10" s="110" t="s">
         <v>279</v>
@@ -8960,7 +8977,7 @@
       <c r="G10" s="113"/>
       <c r="H10" s="114"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="125"/>
       <c r="C11" s="126" t="s">
         <v>466</v>
@@ -8971,7 +8988,7 @@
       <c r="G11" s="127"/>
       <c r="H11" s="128"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="125"/>
       <c r="C12" s="126" t="s">
         <v>467</v>
@@ -8982,7 +8999,7 @@
       <c r="G12" s="127"/>
       <c r="H12" s="128"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="125"/>
       <c r="C13" s="126" t="s">
         <v>468</v>
@@ -8993,7 +9010,7 @@
       <c r="G13" s="127"/>
       <c r="H13" s="128"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="125"/>
       <c r="C14" s="126" t="s">
         <v>469</v>
@@ -9004,7 +9021,7 @@
       <c r="G14" s="127"/>
       <c r="H14" s="128"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="125"/>
       <c r="C15" s="126" t="s">
         <v>470</v>
@@ -9015,7 +9032,7 @@
       <c r="G15" s="127"/>
       <c r="H15" s="128"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="125"/>
       <c r="C16" s="126" t="s">
         <v>471</v>
@@ -9026,7 +9043,7 @@
       <c r="G16" s="127"/>
       <c r="H16" s="128"/>
     </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="121"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
@@ -9035,8 +9052,8 @@
       <c r="G17" s="115"/>
       <c r="H17" s="116"/>
     </row>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="119"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -9046,7 +9063,7 @@
       <c r="H19" s="111"/>
       <c r="I19" s="112"/>
     </row>
-    <row r="20" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B20" s="120" t="s">
         <v>459</v>
       </c>
@@ -9058,7 +9075,7 @@
       <c r="H20" s="113"/>
       <c r="I20" s="114"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="120"/>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
@@ -9066,7 +9083,7 @@
       <c r="H21" s="113"/>
       <c r="I21" s="114"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="120"/>
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
@@ -9076,7 +9093,7 @@
       <c r="H22" s="113"/>
       <c r="I22" s="114"/>
     </row>
-    <row r="23" spans="2:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B23" s="120" t="s">
         <v>463</v>
       </c>
@@ -9098,7 +9115,7 @@
       <c r="H23" s="113"/>
       <c r="I23" s="114"/>
     </row>
-    <row r="24" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B24" s="120" t="s">
         <v>463</v>
       </c>
@@ -9116,7 +9133,7 @@
       <c r="H24" s="113"/>
       <c r="I24" s="114"/>
     </row>
-    <row r="25" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B25" s="120" t="s">
         <v>463</v>
       </c>
@@ -9133,7 +9150,7 @@
       <c r="H25" s="113"/>
       <c r="I25" s="114"/>
     </row>
-    <row r="26" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B26" s="120" t="s">
         <v>463</v>
       </c>
@@ -9150,7 +9167,7 @@
       <c r="H26" s="113"/>
       <c r="I26" s="114"/>
     </row>
-    <row r="27" spans="2:9" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="120"/>
       <c r="D27" s="110" t="s">
         <v>380</v>
@@ -9162,7 +9179,7 @@
       <c r="H27" s="113"/>
       <c r="I27" s="114"/>
     </row>
-    <row r="28" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B28" s="120"/>
       <c r="C28" s="109" t="s">
         <v>460</v>
@@ -9177,7 +9194,7 @@
       <c r="H28" s="113"/>
       <c r="I28" s="114"/>
     </row>
-    <row r="29" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B29" s="120"/>
       <c r="C29" s="109" t="s">
         <v>460</v>
@@ -9192,7 +9209,7 @@
       <c r="H29" s="113"/>
       <c r="I29" s="114"/>
     </row>
-    <row r="30" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B30" s="120"/>
       <c r="C30" s="109" t="s">
         <v>461</v>
@@ -9207,7 +9224,7 @@
       <c r="H30" s="113"/>
       <c r="I30" s="114"/>
     </row>
-    <row r="31" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B31" s="120"/>
       <c r="D31" s="110" t="s">
         <v>388</v>
@@ -9219,7 +9236,7 @@
       <c r="H31" s="113"/>
       <c r="I31" s="114"/>
     </row>
-    <row r="32" spans="2:9" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="120"/>
       <c r="C32" s="109" t="s">
         <v>461</v>
@@ -9234,7 +9251,7 @@
       <c r="H32" s="113"/>
       <c r="I32" s="114"/>
     </row>
-    <row r="33" spans="2:9" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B33" s="120"/>
       <c r="C33" s="109" t="s">
         <v>461</v>
@@ -9254,7 +9271,7 @@
       <c r="H33" s="113"/>
       <c r="I33" s="114"/>
     </row>
-    <row r="34" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B34" s="120"/>
       <c r="D34" s="110" t="s">
         <v>393</v>
@@ -9266,7 +9283,7 @@
       <c r="H34" s="113"/>
       <c r="I34" s="114"/>
     </row>
-    <row r="35" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B35" s="120"/>
       <c r="D35" s="110" t="s">
         <v>395</v>
@@ -9278,7 +9295,7 @@
       <c r="H35" s="113"/>
       <c r="I35" s="114"/>
     </row>
-    <row r="36" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B36" s="120"/>
       <c r="D36" s="110" t="s">
         <v>399</v>
@@ -9290,7 +9307,7 @@
       <c r="H36" s="113"/>
       <c r="I36" s="114"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="120"/>
       <c r="D37" s="110" t="s">
         <v>401</v>
@@ -9302,7 +9319,7 @@
       <c r="H37" s="113"/>
       <c r="I37" s="114"/>
     </row>
-    <row r="38" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B38" s="120"/>
       <c r="C38" s="109" t="s">
         <v>460</v>
@@ -9317,7 +9334,7 @@
       <c r="H38" s="113"/>
       <c r="I38" s="114"/>
     </row>
-    <row r="39" spans="2:9" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="120"/>
       <c r="D39" s="110" t="s">
         <v>405</v>
@@ -9329,7 +9346,7 @@
       <c r="H39" s="113"/>
       <c r="I39" s="114"/>
     </row>
-    <row r="40" spans="2:9" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="120"/>
       <c r="D40" s="110" t="s">
         <v>407</v>
@@ -9341,7 +9358,7 @@
       <c r="H40" s="113"/>
       <c r="I40" s="114"/>
     </row>
-    <row r="41" spans="2:9" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="120"/>
       <c r="D41" s="110" t="s">
         <v>408</v>
@@ -9353,7 +9370,7 @@
       <c r="H41" s="113"/>
       <c r="I41" s="114"/>
     </row>
-    <row r="42" spans="2:9" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B42" s="120"/>
       <c r="D42" s="110" t="s">
         <v>409</v>
@@ -9365,7 +9382,7 @@
       <c r="H42" s="113"/>
       <c r="I42" s="114"/>
     </row>
-    <row r="43" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B43" s="120"/>
       <c r="D43" s="110" t="s">
         <v>410</v>
@@ -9377,7 +9394,7 @@
       <c r="H43" s="113"/>
       <c r="I43" s="114"/>
     </row>
-    <row r="44" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B44" s="120"/>
       <c r="D44" s="110" t="s">
         <v>412</v>
@@ -9389,7 +9406,7 @@
       <c r="H44" s="113"/>
       <c r="I44" s="114"/>
     </row>
-    <row r="45" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B45" s="120"/>
       <c r="D45" s="110" t="s">
         <v>414</v>
@@ -9401,7 +9418,7 @@
       <c r="H45" s="113"/>
       <c r="I45" s="114"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="120"/>
       <c r="D46" s="110" t="s">
         <v>416</v>
@@ -9413,7 +9430,7 @@
       <c r="H46" s="113"/>
       <c r="I46" s="114"/>
     </row>
-    <row r="47" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B47" s="120"/>
       <c r="D47" s="110" t="s">
         <v>418</v>
@@ -9425,7 +9442,7 @@
       <c r="H47" s="113"/>
       <c r="I47" s="114"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="120"/>
       <c r="D48" s="110" t="s">
         <v>420</v>
@@ -9437,7 +9454,7 @@
       <c r="H48" s="113"/>
       <c r="I48" s="114"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="120"/>
       <c r="D49" s="110" t="s">
         <v>422</v>
@@ -9447,7 +9464,7 @@
       <c r="H49" s="113"/>
       <c r="I49" s="114"/>
     </row>
-    <row r="50" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B50" s="120"/>
       <c r="D50" s="110" t="s">
         <v>453</v>
@@ -9459,7 +9476,7 @@
       <c r="H50" s="113"/>
       <c r="I50" s="114"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="120"/>
       <c r="C51" s="110"/>
       <c r="D51" s="110"/>
@@ -9467,7 +9484,7 @@
       <c r="H51" s="113"/>
       <c r="I51" s="114"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="120"/>
       <c r="C52" s="110"/>
       <c r="D52" s="110"/>
@@ -9475,7 +9492,7 @@
       <c r="H52" s="113"/>
       <c r="I52" s="114"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="120"/>
       <c r="C53" s="110"/>
       <c r="D53" s="110"/>
@@ -9485,7 +9502,7 @@
       <c r="H53" s="113"/>
       <c r="I53" s="114"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="120"/>
       <c r="C54" s="110"/>
       <c r="D54" s="110"/>
@@ -9495,7 +9512,7 @@
       <c r="H54" s="113"/>
       <c r="I54" s="114"/>
     </row>
-    <row r="55" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="121"/>
       <c r="C55" s="62"/>
       <c r="D55" s="62"/>
@@ -9505,18 +9522,18 @@
       <c r="H55" s="115"/>
       <c r="I55" s="116"/>
     </row>
-    <row r="57" spans="2:9" ht="114" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B57" s="109" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B58" s="109" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="119"/>
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
@@ -9525,7 +9542,7 @@
       <c r="G61" s="111"/>
       <c r="H61" s="112"/>
     </row>
-    <row r="62" spans="2:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B62" s="120" t="s">
         <v>117</v>
       </c>
@@ -9536,7 +9553,7 @@
       <c r="G62" s="113"/>
       <c r="H62" s="114"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="120"/>
       <c r="C63" s="110" t="s">
         <v>121</v>
@@ -9555,7 +9572,7 @@
       </c>
       <c r="H63" s="114"/>
     </row>
-    <row r="64" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B64" s="120"/>
       <c r="C64" s="110" t="s">
         <v>121</v>
@@ -9574,7 +9591,7 @@
       </c>
       <c r="H64" s="114"/>
     </row>
-    <row r="65" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B65" s="120"/>
       <c r="C65" s="110" t="s">
         <v>121</v>
@@ -9593,7 +9610,7 @@
       </c>
       <c r="H65" s="114"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="120"/>
       <c r="C66" s="110" t="s">
         <v>121</v>
@@ -9606,7 +9623,7 @@
       <c r="G66" s="113"/>
       <c r="H66" s="114"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="120"/>
       <c r="C67" s="110" t="s">
         <v>121</v>
@@ -9619,7 +9636,7 @@
       <c r="G67" s="113"/>
       <c r="H67" s="114"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="120"/>
       <c r="C68" s="110" t="s">
         <v>168</v>
@@ -9636,7 +9653,7 @@
       <c r="G68" s="113"/>
       <c r="H68" s="114"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="120"/>
       <c r="C69" s="110" t="s">
         <v>168</v>
@@ -9653,7 +9670,7 @@
       <c r="G69" s="113"/>
       <c r="H69" s="114"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="120"/>
       <c r="C70" s="110" t="s">
         <v>168</v>
@@ -9670,7 +9687,7 @@
       <c r="G70" s="113"/>
       <c r="H70" s="114"/>
     </row>
-    <row r="71" spans="2:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B71" s="120"/>
       <c r="C71" s="110" t="s">
         <v>168</v>
@@ -9689,7 +9706,7 @@
       </c>
       <c r="H71" s="114"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="120"/>
       <c r="C72" s="110" t="s">
         <v>168</v>
@@ -9706,7 +9723,7 @@
       <c r="G72" s="113"/>
       <c r="H72" s="114"/>
     </row>
-    <row r="73" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B73" s="120"/>
       <c r="C73" s="110"/>
       <c r="D73" s="110">
@@ -9723,7 +9740,7 @@
       </c>
       <c r="H73" s="114"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="120"/>
       <c r="C74" s="110" t="s">
         <v>169</v>
@@ -9740,7 +9757,7 @@
       <c r="G74" s="113"/>
       <c r="H74" s="114"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="120"/>
       <c r="C75" s="110" t="s">
         <v>169</v>
@@ -9753,7 +9770,7 @@
       <c r="G75" s="113"/>
       <c r="H75" s="114"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="120"/>
       <c r="C76" s="110" t="s">
         <v>169</v>
@@ -9770,7 +9787,7 @@
       <c r="G76" s="113"/>
       <c r="H76" s="114"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="120"/>
       <c r="C77" s="110"/>
       <c r="D77" s="110"/>
@@ -9783,7 +9800,7 @@
       <c r="G77" s="113"/>
       <c r="H77" s="114"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="120"/>
       <c r="C78" s="110" t="s">
         <v>169</v>
@@ -9800,7 +9817,7 @@
       <c r="G78" s="113"/>
       <c r="H78" s="114"/>
     </row>
-    <row r="79" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="120"/>
       <c r="C79" s="110" t="s">
         <v>169</v>
@@ -9819,7 +9836,7 @@
       </c>
       <c r="H79" s="114"/>
     </row>
-    <row r="80" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B80" s="120"/>
       <c r="C80" s="110"/>
       <c r="D80" s="110"/>
@@ -9834,7 +9851,7 @@
       </c>
       <c r="H80" s="114"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="120"/>
       <c r="C81" s="110"/>
       <c r="D81" s="110"/>
@@ -9847,7 +9864,7 @@
       <c r="G81" s="113"/>
       <c r="H81" s="114"/>
     </row>
-    <row r="82" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B82" s="120"/>
       <c r="C82" s="110"/>
       <c r="D82" s="110">
@@ -9864,7 +9881,7 @@
       </c>
       <c r="H82" s="114"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="120"/>
       <c r="C83" s="110"/>
       <c r="D83" s="110">
@@ -9875,7 +9892,7 @@
       <c r="G83" s="113"/>
       <c r="H83" s="114"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="120"/>
       <c r="C84" s="110"/>
       <c r="D84" s="110">
@@ -9886,7 +9903,7 @@
       <c r="G84" s="113"/>
       <c r="H84" s="114"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="120"/>
       <c r="C85" s="110"/>
       <c r="D85" s="110">
@@ -9897,7 +9914,7 @@
       <c r="G85" s="113"/>
       <c r="H85" s="114"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="120"/>
       <c r="C86" s="110"/>
       <c r="D86" s="110">
@@ -9908,7 +9925,7 @@
       <c r="G86" s="113"/>
       <c r="H86" s="114"/>
     </row>
-    <row r="87" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="121"/>
       <c r="C87" s="62"/>
       <c r="D87" s="62"/>
@@ -9937,31 +9954,31 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="26"/>
-    <col min="3" max="3" width="54.44140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="64.109375" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="26"/>
+    <col min="1" max="2" width="9.140625" style="26"/>
+    <col min="3" max="3" width="54.42578125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="26" customWidth="1"/>
+    <col min="5" max="5" width="64.140625" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="26" t="s">
         <v>155</v>
       </c>
@@ -9972,12 +9989,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" ht="120" x14ac:dyDescent="0.25">
       <c r="C8" s="26" t="s">
         <v>159</v>
       </c>
@@ -10002,16 +10019,16 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="26" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="26"/>
+    <col min="4" max="4" width="52.140625" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>173</v>
       </c>
@@ -10022,22 +10039,22 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>179</v>
       </c>
@@ -10045,7 +10062,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>229</v>
       </c>
@@ -10070,16 +10087,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="39"/>
+    <col min="1" max="1" width="9.140625" style="39"/>
     <col min="2" max="2" width="34" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" style="39" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="39"/>
+    <col min="4" max="4" width="70.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="114" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
         <v>182</v>
       </c>
@@ -10090,7 +10107,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="159.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>239</v>
       </c>
@@ -10101,7 +10118,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
         <v>246</v>
       </c>
@@ -10109,7 +10126,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>248</v>
       </c>
@@ -10127,7 +10144,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
